--- a/inst/test_cases/parameters_tests.xlsx
+++ b/inst/test_cases/parameters_tests.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15960" activeTab="2" xr2:uid="{F3F27849-05A2-F345-8073-0F310A316E7A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F3F27849-05A2-F345-8073-0F310A316E7A}"/>
   </bookViews>
   <sheets>
-    <sheet name="sorted" sheetId="1" r:id="rId1"/>
-    <sheet name="unsorted" sheetId="2" r:id="rId2"/>
-    <sheet name="circular" sheetId="3" r:id="rId3"/>
+    <sheet name="error" sheetId="5" r:id="rId1"/>
+    <sheet name="invalid" sheetId="4" r:id="rId2"/>
+    <sheet name="sorted" sheetId="1" r:id="rId3"/>
+    <sheet name="unsorted" sheetId="2" r:id="rId4"/>
+    <sheet name="circular" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="21">
   <si>
     <t>name</t>
   </si>
@@ -71,6 +73,24 @@
   </si>
   <si>
     <t>c + 100</t>
+  </si>
+  <si>
+    <t>cars</t>
+  </si>
+  <si>
+    <t>predict(f, newdata = data.frame(dist = c))</t>
+  </si>
+  <si>
+    <t>lm(speed~dist, data = d)</t>
+  </si>
+  <si>
+    <t>c + b</t>
+  </si>
+  <si>
+    <t>100 *</t>
+  </si>
+  <si>
+    <t>100 *  z</t>
   </si>
 </sst>
 </file>
@@ -424,173 +444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2918B67-B96B-9243-B09D-94CB841F5EF0}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="A1:B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6065CE3C-534B-3646-B9E1-39CB9A20DD80}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315F1C8F-2AA3-754A-BC39-6BE28AA9599E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E72468-D583-B64A-AEBF-D0608EF5B677}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -613,6 +467,338 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C168BEC-59F1-8047-BB6D-C5E27251C8FE}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2918B67-B96B-9243-B09D-94CB841F5EF0}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6065CE3C-534B-3646-B9E1-39CB9A20DD80}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315F1C8F-2AA3-754A-BC39-6BE28AA9599E}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">

--- a/inst/test_cases/parameters_tests.xlsx
+++ b/inst/test_cases/parameters_tests.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F3F27849-05A2-F345-8073-0F310A316E7A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{F3F27849-05A2-F345-8073-0F310A316E7A}"/>
   </bookViews>
   <sheets>
-    <sheet name="error" sheetId="5" r:id="rId1"/>
-    <sheet name="invalid" sheetId="4" r:id="rId2"/>
-    <sheet name="sorted" sheetId="1" r:id="rId3"/>
-    <sheet name="unsorted" sheetId="2" r:id="rId4"/>
-    <sheet name="circular" sheetId="3" r:id="rId5"/>
+    <sheet name="colname2" sheetId="7" r:id="rId1"/>
+    <sheet name="colname1" sheetId="6" r:id="rId2"/>
+    <sheet name="error" sheetId="5" r:id="rId3"/>
+    <sheet name="invalid" sheetId="4" r:id="rId4"/>
+    <sheet name="unsorted" sheetId="2" r:id="rId5"/>
+    <sheet name="circular" sheetId="3" r:id="rId6"/>
+    <sheet name="sorted" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="23">
   <si>
     <t>name</t>
   </si>
@@ -91,6 +93,12 @@
   </si>
   <si>
     <t>100 *  z</t>
+  </si>
+  <si>
+    <t>formulas</t>
+  </si>
+  <si>
+    <t>names</t>
   </si>
 </sst>
 </file>
@@ -444,10 +452,176 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA48D791-EF05-874A-BFA9-D00B0E8F58B1}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC7AC72-F383-604B-B60F-C3F819AD6F5A}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E72468-D583-B64A-AEBF-D0608EF5B677}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -526,7 +700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C168BEC-59F1-8047-BB6D-C5E27251C8FE}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -609,7 +783,173 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6065CE3C-534B-3646-B9E1-39CB9A20DD80}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315F1C8F-2AA3-754A-BC39-6BE28AA9599E}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2918B67-B96B-9243-B09D-94CB841F5EF0}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -690,170 +1030,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6065CE3C-534B-3646-B9E1-39CB9A20DD80}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315F1C8F-2AA3-754A-BC39-6BE28AA9599E}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/inst/test_cases/parameters_tests.xlsx
+++ b/inst/test_cases/parameters_tests.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{F3F27849-05A2-F345-8073-0F310A316E7A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="6" xr2:uid="{F3F27849-05A2-F345-8073-0F310A316E7A}"/>
   </bookViews>
   <sheets>
     <sheet name="colname2" sheetId="7" r:id="rId1"/>
@@ -455,9 +455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA48D791-EF05-874A-BFA9-D00B0E8F58B1}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -953,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2918B67-B96B-9243-B09D-94CB841F5EF0}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
